--- a/spec/ConvSpec-050-088-v1.7.xlsx
+++ b/spec/ConvSpec-050-088-v1.7.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="170">
   <si>
     <t>050 - LIBRARY OF CONGRESS CALL NUMBER (R)</t>
   </si>
@@ -510,9 +510,6 @@
     <t>see $2</t>
   </si>
   <si>
-    <t>## - source - Source -http://id.loc.gov/authorities/classification/G</t>
-  </si>
-  <si>
     <t>## - heldBy - Agent - http://id.loc.gov/vocabulary/organizations/dlc ; add bf:code "DLC"</t>
   </si>
   <si>
@@ -528,16 +525,16 @@
     <t xml:space="preserve">     $2 - Edition information (NR)</t>
   </si>
   <si>
-    <t>## - rdf:value "concatenate each $a with $b, separate with space" (a single MARC 052 field could generate multiple geographicCoverage fields)</t>
-  </si>
-  <si>
-    <t>## - place - Place - rdfs:label "content of $d"</t>
-  </si>
-  <si>
     <t>## - classificationPortion - literal for each $a</t>
   </si>
   <si>
-    <t>Fields 050-088 - Class/call numbers, etc. - v1.7, 08/04/2021</t>
+    <t>Fields 050-088 - Class/call numbers, etc. - v1.7, 09/21/2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">When no $b exists, ## - "append to 'http://id.loc.gov/authorities/classification/G' to use as object URI " </t>
+  </si>
+  <si>
+    <t>## - "concatenate $a separately with each $b, separate with a period and append to 'http://id.loc.gov/authorities/classification/G' to use as object URI" (a single MARC 052 field could generate multiple geographicCoverage fields)</t>
   </si>
 </sst>
 </file>
@@ -1001,8 +998,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:D221"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.58203125" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -1016,7 +1013,7 @@
   <sheetData>
     <row r="1" spans="1:4" s="1" customFormat="1" ht="31" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B1" s="6" t="s">
         <v>66</v>
@@ -1076,7 +1073,7 @@
         <v>117</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
@@ -1128,10 +1125,10 @@
         <v>72</v>
       </c>
       <c r="B13" s="13" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D13" s="9"/>
     </row>
@@ -1204,7 +1201,7 @@
         <v>76</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.35">
@@ -1220,7 +1217,7 @@
         <v>77</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.35">
@@ -1247,12 +1244,12 @@
         <v>28</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="46.5" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A29" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="B29" s="9" t="s">
-        <v>161</v>
+      <c r="B29" s="13" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.35">
@@ -1276,12 +1273,15 @@
         <v>20</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="77.5" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:4" ht="124" x14ac:dyDescent="0.35">
       <c r="A33" s="5" t="s">
         <v>78</v>
       </c>
       <c r="B33" s="13" t="s">
-        <v>167</v>
+        <v>169</v>
+      </c>
+      <c r="C33" s="13" t="s">
+        <v>168</v>
       </c>
       <c r="D33" s="7"/>
     </row>
@@ -1293,12 +1293,15 @@
         <v>138</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="31" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A35" s="5" t="s">
         <v>80</v>
       </c>
       <c r="B35" s="13" t="s">
-        <v>168</v>
+        <v>69</v>
+      </c>
+      <c r="C35" s="13" t="s">
+        <v>69</v>
       </c>
       <c r="D35" s="11"/>
     </row>
@@ -1306,8 +1309,11 @@
       <c r="A36" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="B36" s="7" t="s">
-        <v>130</v>
+      <c r="B36" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="C36" s="13" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="37" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.35">
@@ -2113,7 +2119,7 @@
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A156" s="7" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B156" s="9" t="s">
         <v>132</v>
@@ -2203,7 +2209,7 @@
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A172" s="5" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.35">

--- a/spec/ConvSpec-050-088-v1.7.xlsx
+++ b/spec/ConvSpec-050-088-v1.7.xlsx
@@ -528,13 +528,13 @@
     <t>## - classificationPortion - literal for each $a</t>
   </si>
   <si>
-    <t>Fields 050-088 - Class/call numbers, etc. - v1.7, 09/21/2021</t>
-  </si>
-  <si>
     <t xml:space="preserve">When no $b exists, ## - "append to 'http://id.loc.gov/authorities/classification/G' to use as object URI " </t>
   </si>
   <si>
     <t>## - "concatenate $a separately with each $b, separate with a period and append to 'http://id.loc.gov/authorities/classification/G' to use as object URI" (a single MARC 052 field could generate multiple geographicCoverage fields)</t>
+  </si>
+  <si>
+    <t>Fields 050-088 - Class/call numbers, etc. - v1.7, 10/21/2021</t>
   </si>
 </sst>
 </file>
@@ -615,24 +615,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -668,36 +656,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -706,7 +667,19 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -998,117 +971,112 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:D221"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="C36" sqref="C36"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="150" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.58203125" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="37.33203125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="31.5" style="7" customWidth="1"/>
+    <col min="2" max="2" width="31.5" style="1" customWidth="1"/>
     <col min="3" max="3" width="29.75" style="2" customWidth="1"/>
     <col min="4" max="4" width="38.58203125" style="2" customWidth="1"/>
     <col min="5" max="16384" width="10.58203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="1" customFormat="1" ht="31" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="B1" s="6" t="s">
+    <row r="1" spans="1:4" s="4" customFormat="1" ht="31" x14ac:dyDescent="0.35">
+      <c r="A1" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="B1" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="4" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A2" s="1"/>
-    </row>
-    <row r="3" spans="1:4" s="1" customFormat="1" ht="31" x14ac:dyDescent="0.35">
-      <c r="A3" s="4" t="s">
+      <c r="A2" s="4"/>
+    </row>
+    <row r="3" spans="1:4" s="4" customFormat="1" ht="31" x14ac:dyDescent="0.35">
+      <c r="A3" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="1" t="s">
         <v>70</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="D3" s="11"/>
+      <c r="D3" s="2"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="B4" s="12"/>
-      <c r="D4" s="11"/>
+      <c r="B4" s="3"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="B5" s="9"/>
-      <c r="C5" s="10"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="B6" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="C6" s="7" t="s">
+      <c r="B6" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="46.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="B7" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="C7" s="9" t="s">
+      <c r="B7" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A8" s="5" t="s">
+      <c r="A8" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="B8" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="C8" s="7" t="s">
+      <c r="B8" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A9" s="5" t="s">
+      <c r="A9" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="C9" s="7"/>
+      <c r="C9" s="1"/>
     </row>
     <row r="10" spans="1:4" ht="46.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="5" t="s">
+      <c r="A10" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="B10" s="9" t="s">
+      <c r="B10" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="C10" s="7" t="s">
+      <c r="C10" s="1" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A11" s="5" t="s">
+      <c r="A11" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="B11" s="7" t="s">
+      <c r="B11" s="1" t="s">
         <v>117</v>
       </c>
       <c r="C11" s="2" t="s">
@@ -1116,63 +1084,63 @@
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A12" s="5" t="s">
+      <c r="A12" s="7" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="93" x14ac:dyDescent="0.35">
-      <c r="A13" s="5" t="s">
+      <c r="A13" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="B13" s="13" t="s">
+      <c r="B13" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="C13" s="7" t="s">
+      <c r="C13" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="D13" s="9"/>
+      <c r="D13" s="1"/>
     </row>
     <row r="14" spans="1:4" ht="31" x14ac:dyDescent="0.35">
-      <c r="A14" s="5" t="s">
+      <c r="A14" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="B14" s="9" t="s">
+      <c r="B14" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="C14" s="7" t="s">
+      <c r="C14" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="D14" s="9"/>
-    </row>
-    <row r="15" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="7" t="s">
+      <c r="D14" s="1"/>
+    </row>
+    <row r="15" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="B15" s="7" t="s">
+      <c r="B15" s="1" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="16" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="7" t="s">
+    <row r="16" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="B16" s="7" t="s">
+      <c r="B16" s="1" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A17" s="5" t="s">
+      <c r="A17" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="B17" s="7" t="s">
+      <c r="B17" s="1" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A18" s="5" t="s">
+      <c r="A18" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="B18" s="7" t="s">
+      <c r="B18" s="1" t="s">
         <v>69</v>
       </c>
     </row>
@@ -1181,42 +1149,42 @@
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:4" s="1" customFormat="1" ht="31" x14ac:dyDescent="0.35">
-      <c r="A20" s="4" t="s">
+    <row r="20" spans="1:4" s="4" customFormat="1" ht="31" x14ac:dyDescent="0.35">
+      <c r="A20" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B20" s="9" t="s">
+      <c r="B20" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="D20" s="8"/>
-    </row>
-    <row r="21" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="5" t="s">
+      <c r="D20" s="3"/>
+    </row>
+    <row r="21" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="B21" s="6"/>
+      <c r="B21" s="5"/>
     </row>
     <row r="22" spans="1:4" ht="31" x14ac:dyDescent="0.35">
-      <c r="A22" s="5" t="s">
+      <c r="A22" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="B22" s="7" t="s">
+      <c r="B22" s="1" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A23" s="5" t="s">
+      <c r="A23" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="B23" s="7" t="s">
+      <c r="B23" s="1" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="31" x14ac:dyDescent="0.35">
-      <c r="A24" s="5" t="s">
+      <c r="A24" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="B24" s="7" t="s">
+      <c r="B24" s="1" t="s">
         <v>164</v>
       </c>
     </row>
@@ -1225,303 +1193,302 @@
         <v>18</v>
       </c>
     </row>
-    <row r="26" spans="1:4" s="1" customFormat="1" ht="31" x14ac:dyDescent="0.35">
-      <c r="A26" s="4" t="s">
+    <row r="26" spans="1:4" s="4" customFormat="1" ht="31" x14ac:dyDescent="0.35">
+      <c r="A26" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B26" s="9" t="s">
+      <c r="B26" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="D26" s="11"/>
+      <c r="D26" s="2"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A27" s="5" t="s">
+      <c r="A27" s="7" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A28" s="5" t="s">
+      <c r="A28" s="7" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A29" s="5" t="s">
+      <c r="A29" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="B29" s="13" t="s">
-        <v>117</v>
+      <c r="B29" s="3" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A30" s="5" t="s">
+      <c r="A30" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="B30" s="7" t="s">
+      <c r="B30" s="1" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A31" s="5" t="s">
+      <c r="A31" s="7" t="s">
         <v>150</v>
       </c>
-      <c r="B31" s="7" t="s">
+      <c r="B31" s="1" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A32" s="5" t="s">
+      <c r="A32" s="7" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="124" x14ac:dyDescent="0.35">
-      <c r="A33" s="5" t="s">
+      <c r="A33" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="B33" s="13" t="s">
-        <v>169</v>
-      </c>
-      <c r="C33" s="13" t="s">
+      <c r="B33" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="D33" s="7"/>
+      <c r="C33" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="D33" s="1"/>
     </row>
     <row r="34" spans="1:4" ht="31" x14ac:dyDescent="0.35">
-      <c r="A34" s="5" t="s">
+      <c r="A34" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="B34" s="7" t="s">
+      <c r="B34" s="1" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A35" s="5" t="s">
+      <c r="A35" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="B35" s="13" t="s">
-        <v>69</v>
-      </c>
-      <c r="C35" s="13" t="s">
-        <v>69</v>
-      </c>
-      <c r="D35" s="11"/>
-    </row>
-    <row r="36" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="7" t="s">
+      <c r="B35" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A36" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="B36" s="13" t="s">
-        <v>69</v>
-      </c>
-      <c r="C36" s="13" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="7" t="s">
+      <c r="B36" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="B37" s="7" t="s">
+      <c r="B37" s="1" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A38" s="5" t="s">
+      <c r="A38" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="B38" s="7" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="7" t="s">
+      <c r="B38" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A39" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="B39" s="7" t="s">
+      <c r="B39" s="1" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A40" s="7" t="s">
+      <c r="A40" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="41" spans="1:4" s="1" customFormat="1" ht="31" x14ac:dyDescent="0.35">
-      <c r="A41" s="4" t="s">
+    <row r="41" spans="1:4" s="4" customFormat="1" ht="31" x14ac:dyDescent="0.35">
+      <c r="A41" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B41" s="7" t="s">
+      <c r="B41" s="1" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A42" s="5" t="s">
+      <c r="A42" s="7" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A43" s="5" t="s">
+      <c r="A43" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="B43" s="7" t="s">
+      <c r="B43" s="1" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A44" s="5" t="s">
+      <c r="A44" s="7" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A45" s="5" t="s">
+      <c r="A45" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="C45" s="3"/>
+      <c r="C45" s="8"/>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A46" s="5" t="s">
+      <c r="A46" s="7" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="31" x14ac:dyDescent="0.35">
-      <c r="A47" s="5" t="s">
+      <c r="A47" s="7" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="46.5" x14ac:dyDescent="0.35">
-      <c r="A48" s="5" t="s">
+      <c r="A48" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="B48" s="9" t="s">
+      <c r="B48" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="C48" s="3"/>
-      <c r="D48" s="8"/>
+      <c r="C48" s="8"/>
+      <c r="D48" s="3"/>
     </row>
     <row r="49" spans="1:4" ht="46.5" x14ac:dyDescent="0.35">
-      <c r="A49" s="5" t="s">
+      <c r="A49" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="B49" s="9" t="s">
+      <c r="B49" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="D49" s="8"/>
+      <c r="D49" s="3"/>
     </row>
     <row r="50" spans="1:4" ht="46.5" x14ac:dyDescent="0.35">
-      <c r="A50" s="5" t="s">
+      <c r="A50" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="B50" s="9" t="s">
+      <c r="B50" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="D50" s="8"/>
+      <c r="D50" s="3"/>
     </row>
     <row r="51" spans="1:4" ht="31" x14ac:dyDescent="0.35">
-      <c r="A51" s="5" t="s">
+      <c r="A51" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="B51" s="7" t="s">
+      <c r="B51" s="1" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="52" spans="1:4" ht="31" x14ac:dyDescent="0.35">
-      <c r="A52" s="5" t="s">
+      <c r="A52" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="B52" s="7" t="s">
+      <c r="B52" s="1" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="53" spans="1:4" ht="31" x14ac:dyDescent="0.35">
-      <c r="A53" s="5" t="s">
+      <c r="A53" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="B53" s="7" t="s">
+      <c r="B53" s="1" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A54" s="5" t="s">
+      <c r="A54" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="B54" s="7" t="s">
+      <c r="B54" s="1" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A55" s="5" t="s">
+      <c r="A55" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="B55" s="7" t="s">
+      <c r="B55" s="1" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="56" spans="1:4" ht="31" x14ac:dyDescent="0.35">
-      <c r="A56" s="5" t="s">
+      <c r="A56" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="B56" s="7" t="s">
+      <c r="B56" s="1" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="57" spans="1:4" ht="31" x14ac:dyDescent="0.35">
-      <c r="A57" s="5" t="s">
+      <c r="A57" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="B57" s="7" t="s">
+      <c r="B57" s="1" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A58" s="5" t="s">
+      <c r="A58" s="7" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A59" s="5" t="s">
+      <c r="A59" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="B59" s="7" t="s">
+      <c r="B59" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="C59" s="3"/>
+      <c r="C59" s="8"/>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A60" s="5" t="s">
+      <c r="A60" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="B60" s="7" t="s">
+      <c r="B60" s="1" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="61" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A61" s="7" t="s">
+    <row r="61" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A61" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="B61" s="7" t="s">
+      <c r="B61" s="1" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="62" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A62" s="7" t="s">
+    <row r="62" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A62" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="B62" s="7" t="s">
+      <c r="B62" s="1" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A63" s="5" t="s">
+      <c r="A63" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="B63" s="7" t="s">
+      <c r="B63" s="1" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A64" s="5" t="s">
+      <c r="A64" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="B64" s="7" t="s">
+      <c r="B64" s="1" t="s">
         <v>69</v>
       </c>
     </row>
@@ -1530,98 +1497,98 @@
         <v>18</v>
       </c>
     </row>
-    <row r="66" spans="1:4" s="1" customFormat="1" ht="31" x14ac:dyDescent="0.35">
-      <c r="A66" s="4" t="s">
+    <row r="66" spans="1:4" s="4" customFormat="1" ht="31" x14ac:dyDescent="0.35">
+      <c r="A66" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B66" s="7" t="s">
+      <c r="B66" s="1" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A67" s="5" t="s">
+      <c r="A67" s="7" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A68" s="5" t="s">
+      <c r="A68" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="B68" s="7" t="s">
+      <c r="B68" s="1" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A69" s="5" t="s">
+      <c r="A69" s="7" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A70" s="5" t="s">
+      <c r="A70" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="D70" s="7"/>
+      <c r="D70" s="1"/>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A71" s="5" t="s">
+      <c r="A71" s="7" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A72" s="5" t="s">
+      <c r="A72" s="7" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="73" spans="1:4" ht="46.5" x14ac:dyDescent="0.35">
-      <c r="A73" s="5" t="s">
+      <c r="A73" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="B73" s="7" t="s">
+      <c r="B73" s="1" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A74" s="5" t="s">
+      <c r="A74" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="B74" s="7" t="s">
+      <c r="B74" s="1" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A75" s="5" t="s">
+      <c r="A75" s="7" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A76" s="5" t="s">
+      <c r="A76" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="B76" s="7" t="s">
+      <c r="B76" s="1" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A77" s="5" t="s">
+      <c r="A77" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="B77" s="7" t="s">
+      <c r="B77" s="1" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="78" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A78" s="7" t="s">
+    <row r="78" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A78" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="B78" s="7" t="s">
+      <c r="B78" s="1" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="79" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A79" s="7" t="s">
+    <row r="79" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A79" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="B79" s="7" t="s">
+      <c r="B79" s="1" t="s">
         <v>69</v>
       </c>
     </row>
@@ -1631,30 +1598,30 @@
       </c>
     </row>
     <row r="81" spans="1:4" ht="31" x14ac:dyDescent="0.35">
-      <c r="A81" s="4" t="s">
+      <c r="A81" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B81" s="7" t="s">
+      <c r="B81" s="1" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A82" s="5" t="s">
+      <c r="A82" s="7" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A83" s="5" t="s">
+      <c r="A83" s="7" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A84" s="5" t="s">
+      <c r="A84" s="7" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A85" s="5" t="s">
+      <c r="A85" s="7" t="s">
         <v>77</v>
       </c>
     </row>
@@ -1664,30 +1631,30 @@
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A87" s="4" t="s">
+      <c r="A87" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B87" s="7" t="s">
+      <c r="B87" s="1" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A88" s="5" t="s">
+      <c r="A88" s="7" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A89" s="5" t="s">
+      <c r="A89" s="7" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A90" s="5" t="s">
+      <c r="A90" s="7" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A91" s="5" t="s">
+      <c r="A91" s="7" t="s">
         <v>85</v>
       </c>
     </row>
@@ -1697,74 +1664,74 @@
       </c>
     </row>
     <row r="93" spans="1:4" ht="31" x14ac:dyDescent="0.35">
-      <c r="A93" s="4" t="s">
+      <c r="A93" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B93" s="7" t="s">
+      <c r="B93" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="D93" s="8"/>
+      <c r="D93" s="3"/>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A94" s="5" t="s">
+      <c r="A94" s="7" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A95" s="5" t="s">
+      <c r="A95" s="7" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="96" spans="1:4" ht="46.5" x14ac:dyDescent="0.35">
-      <c r="A96" s="5" t="s">
+      <c r="A96" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="B96" s="9" t="s">
+      <c r="B96" s="1" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A97" s="5" t="s">
+      <c r="A97" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="B97" s="7" t="s">
+      <c r="B97" s="1" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A98" s="5" t="s">
+      <c r="A98" s="7" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A99" s="5" t="s">
+      <c r="A99" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="B99" s="7" t="s">
+      <c r="B99" s="1" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A100" s="5" t="s">
+      <c r="A100" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="B100" s="7" t="s">
+      <c r="B100" s="1" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="101" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A101" s="7" t="s">
+    <row r="101" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A101" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="B101" s="7" t="s">
+      <c r="B101" s="1" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="102" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A102" s="7" t="s">
+    <row r="102" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A102" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="B102" s="7" t="s">
+      <c r="B102" s="1" t="s">
         <v>69</v>
       </c>
     </row>
@@ -1774,30 +1741,30 @@
       </c>
     </row>
     <row r="104" spans="1:4" ht="31" x14ac:dyDescent="0.35">
-      <c r="A104" s="4" t="s">
+      <c r="A104" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B104" s="7" t="s">
+      <c r="B104" s="1" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A105" s="5" t="s">
+      <c r="A105" s="7" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A106" s="5" t="s">
+      <c r="A106" s="7" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A107" s="5" t="s">
+      <c r="A107" s="7" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A108" s="5" t="s">
+      <c r="A108" s="7" t="s">
         <v>77</v>
       </c>
     </row>
@@ -1807,77 +1774,77 @@
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A110" s="4" t="s">
+      <c r="A110" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B110" s="7" t="s">
+      <c r="B110" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="D110" s="12"/>
+      <c r="D110" s="3"/>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A111" s="5" t="s">
+      <c r="A111" s="7" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A112" s="5" t="s">
+      <c r="A112" s="7" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="113" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
-      <c r="A113" s="5" t="s">
+      <c r="A113" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="B113" s="7" t="s">
+      <c r="B113" s="1" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A114" s="5" t="s">
+      <c r="A114" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="B114" s="7" t="s">
+      <c r="B114" s="1" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A115" s="5" t="s">
+      <c r="A115" s="7" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="116" spans="1:3" ht="31" x14ac:dyDescent="0.35">
-      <c r="A116" s="5" t="s">
+      <c r="A116" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="B116" s="7" t="s">
+      <c r="B116" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="C116" s="7"/>
+      <c r="C116" s="1"/>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A117" s="5" t="s">
+      <c r="A117" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="B117" s="7" t="s">
+      <c r="B117" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="C117" s="7"/>
+      <c r="C117" s="1"/>
     </row>
     <row r="118" spans="1:3" ht="77.5" x14ac:dyDescent="0.35">
-      <c r="A118" s="5" t="s">
+      <c r="A118" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="B118" s="7" t="s">
+      <c r="B118" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="C118" s="7"/>
-    </row>
-    <row r="119" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A119" s="7" t="s">
+      <c r="C118" s="1"/>
+    </row>
+    <row r="119" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A119" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="B119" s="7" t="s">
+      <c r="B119" s="1" t="s">
         <v>69</v>
       </c>
     </row>
@@ -1885,37 +1852,37 @@
       <c r="A120" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C120" s="7"/>
+      <c r="C120" s="1"/>
     </row>
     <row r="121" spans="1:3" ht="93" x14ac:dyDescent="0.35">
-      <c r="A121" s="4" t="s">
+      <c r="A121" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B121" s="7" t="s">
+      <c r="B121" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="C121" s="7" t="s">
+      <c r="C121" s="1" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A122" s="5" t="s">
+      <c r="A122" s="7" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A123" s="5" t="s">
+      <c r="A123" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="B123" s="7" t="s">
+      <c r="B123" s="1" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="124" spans="1:3" ht="77.5" x14ac:dyDescent="0.35">
-      <c r="A124" s="5" t="s">
+      <c r="A124" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="C124" s="7" t="s">
+      <c r="C124" s="1" t="s">
         <v>135</v>
       </c>
     </row>
@@ -1925,70 +1892,70 @@
       </c>
     </row>
     <row r="126" spans="1:3" ht="31" x14ac:dyDescent="0.35">
-      <c r="A126" s="4" t="s">
+      <c r="A126" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B126" s="7" t="s">
+      <c r="B126" s="1" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A127" s="5" t="s">
+      <c r="A127" s="7" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A128" s="5" t="s">
+      <c r="A128" s="7" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A129" s="5" t="s">
+      <c r="A129" s="7" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A130" s="5" t="s">
+      <c r="A130" s="7" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A131" s="5" t="s">
+      <c r="A131" s="7" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="132" spans="1:4" ht="31" x14ac:dyDescent="0.35">
-      <c r="A132" s="5" t="s">
+      <c r="A132" s="7" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A133" s="5" t="s">
+      <c r="A133" s="7" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A134" s="5" t="s">
+      <c r="A134" s="7" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="135" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A135" s="7" t="s">
+    <row r="135" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A135" s="1" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="136" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A136" s="7" t="s">
+    <row r="136" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A136" s="1" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A137" s="5" t="s">
+      <c r="A137" s="7" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A138" s="5" t="s">
+      <c r="A138" s="7" t="s">
         <v>75</v>
       </c>
     </row>
@@ -1998,139 +1965,139 @@
       </c>
     </row>
     <row r="140" spans="1:4" ht="31" x14ac:dyDescent="0.35">
-      <c r="A140" s="4" t="s">
+      <c r="A140" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B140" s="7" t="s">
+      <c r="B140" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="D140" s="7"/>
+      <c r="D140" s="1"/>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A141" s="5" t="s">
+      <c r="A141" s="7" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A142" s="5" t="s">
+      <c r="A142" s="7" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A143" s="5" t="s">
+      <c r="A143" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="B143" s="7" t="s">
+      <c r="B143" s="1" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A144" s="5" t="s">
+      <c r="A144" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="B144" s="9" t="s">
+      <c r="B144" s="1" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A145" s="5" t="s">
+      <c r="A145" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="B145" s="9" t="s">
+      <c r="B145" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="D145" s="7"/>
+      <c r="D145" s="1"/>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A146" s="5" t="s">
+      <c r="A146" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="B146" s="7" t="s">
+      <c r="B146" s="1" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A147" s="5" t="s">
+      <c r="A147" s="7" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A148" s="5" t="s">
+      <c r="A148" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="B148" s="7" t="s">
+      <c r="B148" s="1" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="149" spans="1:4" ht="46.5" x14ac:dyDescent="0.35">
-      <c r="A149" s="5" t="s">
+      <c r="A149" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="B149" s="7" t="s">
+      <c r="B149" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="C149" s="8"/>
+      <c r="C149" s="3"/>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A150" s="5" t="s">
+      <c r="A150" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="B150" s="7" t="s">
+      <c r="B150" s="1" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A151" s="5" t="s">
+      <c r="A151" s="7" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A152" s="5" t="s">
+      <c r="A152" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="B152" s="7" t="s">
+      <c r="B152" s="1" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A153" s="5" t="s">
+      <c r="A153" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="B153" s="7" t="s">
+      <c r="B153" s="1" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="154" spans="1:4" ht="31" x14ac:dyDescent="0.35">
-      <c r="A154" s="5" t="s">
+      <c r="A154" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="B154" s="7" t="s">
+      <c r="B154" s="1" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="155" spans="1:4" ht="31" x14ac:dyDescent="0.35">
-      <c r="A155" s="7" t="s">
+      <c r="A155" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="B155" s="7" t="s">
+      <c r="B155" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="D155" s="7"/>
+      <c r="D155" s="1"/>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A156" s="7" t="s">
+      <c r="A156" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="B156" s="9" t="s">
+      <c r="B156" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="C156" s="8"/>
-    </row>
-    <row r="157" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A157" s="7" t="s">
+      <c r="C156" s="3"/>
+    </row>
+    <row r="157" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A157" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="B157" s="7" t="s">
+      <c r="B157" s="1" t="s">
         <v>69</v>
       </c>
     </row>
@@ -2140,80 +2107,80 @@
       </c>
     </row>
     <row r="159" spans="1:4" ht="31" x14ac:dyDescent="0.35">
-      <c r="A159" s="4" t="s">
+      <c r="A159" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B159" s="7" t="s">
+      <c r="B159" s="1" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A160" s="5" t="s">
+      <c r="A160" s="7" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A161" s="5" t="s">
+      <c r="A161" s="7" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A162" s="5" t="s">
+      <c r="A162" s="7" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A163" s="5" t="s">
+      <c r="A163" s="7" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A164" s="5" t="s">
+      <c r="A164" s="7" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A165" s="5" t="s">
+      <c r="A165" s="7" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A166" s="5" t="s">
+      <c r="A166" s="7" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="167" spans="1:4" ht="31" x14ac:dyDescent="0.35">
-      <c r="A167" s="5" t="s">
+      <c r="A167" s="7" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="168" spans="1:4" ht="31" x14ac:dyDescent="0.35">
-      <c r="A168" s="5" t="s">
+      <c r="A168" s="7" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A169" s="5" t="s">
+      <c r="A169" s="7" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="170" spans="1:4" ht="31" x14ac:dyDescent="0.35">
-      <c r="A170" s="5" t="s">
+      <c r="A170" s="7" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A171" s="5" t="s">
+      <c r="A171" s="7" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A172" s="5" t="s">
+      <c r="A172" s="7" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A173" s="5" t="s">
+      <c r="A173" s="7" t="s">
         <v>75</v>
       </c>
     </row>
@@ -2223,170 +2190,170 @@
       </c>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A175" s="4" t="s">
+      <c r="A175" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B175" s="7" t="s">
+      <c r="B175" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="D175" s="8"/>
+      <c r="D175" s="3"/>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A176" s="5" t="s">
+      <c r="A176" s="7" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A177" s="5" t="s">
+      <c r="A177" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="B177" s="7" t="s">
+      <c r="B177" s="1" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A178" s="5" t="s">
+      <c r="A178" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="B178" s="7" t="s">
+      <c r="B178" s="1" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="179" spans="1:4" ht="31" x14ac:dyDescent="0.35">
-      <c r="A179" s="5" t="s">
+      <c r="A179" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="B179" s="7" t="s">
+      <c r="B179" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="D179" s="7"/>
-    </row>
-    <row r="180" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A180" s="7" t="s">
+      <c r="D179" s="1"/>
+    </row>
+    <row r="180" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A180" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="B180" s="7" t="s">
+      <c r="B180" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="D180" s="7"/>
-    </row>
-    <row r="181" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A181" s="7" t="s">
+      <c r="D180" s="1"/>
+    </row>
+    <row r="181" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A181" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="B181" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="D181" s="7"/>
+      <c r="B181" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D181" s="1"/>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A182" s="5" t="s">
+      <c r="A182" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="B182" s="7" t="s">
+      <c r="B182" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="D182" s="7"/>
-    </row>
-    <row r="183" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A183" s="7" t="s">
+      <c r="D182" s="1"/>
+    </row>
+    <row r="183" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A183" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="B183" s="7" t="s">
+      <c r="B183" s="1" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A184" s="5" t="s">
+      <c r="A184" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D184" s="7"/>
+      <c r="D184" s="1"/>
     </row>
     <row r="185" spans="1:4" ht="31" x14ac:dyDescent="0.35">
-      <c r="A185" s="4" t="s">
+      <c r="A185" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B185" s="7" t="s">
+      <c r="B185" s="1" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A186" s="5" t="s">
+      <c r="A186" s="7" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="187" spans="1:4" ht="46.5" x14ac:dyDescent="0.35">
-      <c r="A187" s="5" t="s">
+      <c r="A187" s="7" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A188" s="5" t="s">
+      <c r="A188" s="7" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="189" spans="1:4" ht="31" x14ac:dyDescent="0.35">
-      <c r="A189" s="5" t="s">
+      <c r="A189" s="7" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A190" s="5" t="s">
+      <c r="A190" s="7" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A191" s="5" t="s">
+      <c r="A191" s="7" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="192" spans="1:4" ht="31" x14ac:dyDescent="0.35">
-      <c r="A192" s="5" t="s">
+      <c r="A192" s="7" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="193" spans="1:3" ht="31" x14ac:dyDescent="0.35">
-      <c r="A193" s="5" t="s">
+      <c r="A193" s="7" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A194" s="5" t="s">
+      <c r="A194" s="7" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="195" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
-      <c r="A195" s="5" t="s">
+      <c r="A195" s="7" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="196" spans="1:3" ht="31" x14ac:dyDescent="0.35">
-      <c r="A196" s="5" t="s">
+      <c r="A196" s="7" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="197" spans="1:3" ht="31" x14ac:dyDescent="0.35">
-      <c r="A197" s="5" t="s">
+      <c r="A197" s="7" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A198" s="5" t="s">
+      <c r="A198" s="7" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="199" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A199" s="7" t="s">
+    <row r="199" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A199" s="1" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="200" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A200" s="7" t="s">
+    <row r="200" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A200" s="1" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A201" s="5" t="s">
+      <c r="A201" s="7" t="s">
         <v>75</v>
       </c>
     </row>
@@ -2396,10 +2363,10 @@
       </c>
     </row>
     <row r="203" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
-      <c r="A203" s="4" t="s">
+      <c r="A203" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B203" s="9" t="s">
+      <c r="B203" s="1" t="s">
         <v>127</v>
       </c>
       <c r="C203" s="2" t="s">
@@ -2407,20 +2374,20 @@
       </c>
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A204" s="5" t="s">
+      <c r="A204" s="7" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A205" s="5" t="s">
+      <c r="A205" s="7" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A206" s="5" t="s">
+      <c r="A206" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="B206" s="7" t="s">
+      <c r="B206" s="1" t="s">
         <v>160</v>
       </c>
       <c r="C206" s="2" t="s">
@@ -2428,84 +2395,84 @@
       </c>
     </row>
     <row r="207" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
-      <c r="A207" s="5" t="s">
+      <c r="A207" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="B207" s="7" t="s">
+      <c r="B207" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="C207" s="7" t="s">
+      <c r="C207" s="1" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="208" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
-      <c r="A208" s="5" t="s">
+      <c r="A208" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="B208" s="7" t="s">
+      <c r="B208" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="C208" s="7" t="s">
+      <c r="C208" s="1" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A209" s="5" t="s">
+      <c r="A209" s="7" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A210" s="5" t="s">
+      <c r="A210" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="B210" s="7" t="s">
+      <c r="B210" s="1" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="211" spans="1:4" ht="77.5" x14ac:dyDescent="0.35">
-      <c r="A211" s="5" t="s">
+      <c r="A211" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="C211" s="7" t="s">
+      <c r="C211" s="1" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="212" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A212" s="7" t="s">
+    <row r="212" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A212" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="B212" s="7" t="s">
+      <c r="B212" s="1" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="213" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A213" s="7" t="s">
+    <row r="213" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A213" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="B213" s="7" t="s">
+      <c r="B213" s="1" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="214" spans="1:4" ht="31" x14ac:dyDescent="0.35">
-      <c r="A214" s="7" t="s">
+      <c r="A214" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="B214" s="7" t="s">
+      <c r="B214" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="C214" s="7" t="s">
+      <c r="C214" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="D214" s="8"/>
-    </row>
-    <row r="215" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A215" s="7" t="s">
+      <c r="D214" s="3"/>
+    </row>
+    <row r="215" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A215" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="B215" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="C215" s="7" t="s">
+      <c r="B215" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C215" s="1" t="s">
         <v>69</v>
       </c>
     </row>
@@ -2515,42 +2482,42 @@
       </c>
     </row>
     <row r="217" spans="1:4" ht="46.5" x14ac:dyDescent="0.35">
-      <c r="A217" s="4" t="s">
+      <c r="A217" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="B217" s="7" t="s">
+      <c r="B217" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="C217" s="7" t="s">
+      <c r="C217" s="1" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A218" s="5" t="s">
+      <c r="A218" s="7" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A219" s="5" t="s">
+      <c r="A219" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="B219" s="7" t="s">
+      <c r="B219" s="1" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="220" spans="1:4" ht="77.5" x14ac:dyDescent="0.35">
-      <c r="A220" s="5" t="s">
+      <c r="A220" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="C220" s="7" t="s">
+      <c r="C220" s="1" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A221" s="5" t="s">
+      <c r="A221" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="B221" s="7" t="s">
+      <c r="B221" s="1" t="s">
         <v>69</v>
       </c>
     </row>
